--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:43:38</t>
+          <t>10:58:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -513,18 +513,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10:43:38</t>
+          <t>10:58:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10:43:41</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -537,17 +533,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10:43:39</t>
+          <t>10:58:01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10:43:41</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -561,30 +553,190 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10:43:39</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10:43:39</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10:43:39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10:43:40</t>
-        </is>
-      </c>
+          <t>10:58:01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Auto 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10:58:01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Auto 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10:58:01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Auto 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10:58:01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10:58:02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10:58:03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10:58:03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Auto 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10:58:12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Auto 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10:58:12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Auto 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10:58:13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10:58:13</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10:58:13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:58:13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10:58:14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Auto 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10:58:15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10:58:15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
